--- a/electrical/power_board_v1_revB/production_files/BOM discovery v1 revB.xlsx
+++ b/electrical/power_board_v1_revB/production_files/BOM discovery v1 revB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas\Desktop\discovery\prod discovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas\Documents\GitHub\Discovery\electrical\power_board_v1_revB\production_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9958D7EC-C5DD-453E-8DC2-27D19C7AB3B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B82AE2F4-35CD-43FD-AFEF-8264D9B24004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="16245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="31" uniqueCount="22">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="31" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -51,9 +51,6 @@
     <t>J2,J4,J5,J6</t>
   </si>
   <si>
-    <t>Conn_02x04_PCIe</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -97,15 +94,37 @@
   </si>
   <si>
     <t>538-46207-0108</t>
+  </si>
+  <si>
+    <t>Conn_02x04_4,2mm</t>
+  </si>
+  <si>
+    <t>Conn_02x03_4,2mm</t>
+  </si>
+  <si>
+    <t>Conn_02x03_PCIe</t>
+  </si>
+  <si>
+    <t>46207-0106</t>
+  </si>
+  <si>
+    <t>538-46207-0106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
+  <fonts count="21" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -553,53 +572,56 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -962,7 +984,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -979,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -991,19 +1013,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1014,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1023,13 +1045,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>2.19</v>
@@ -1047,38 +1069,38 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3" si="0">I3*D3</f>
-        <v>8.76</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <f>SUM(J2:J3)</f>
-        <v>13.14</v>
+        <v>12.02</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1123,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1137,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>4</v>
